--- a/johnnyCode/AlgebraCohomologyTable.xlsx
+++ b/johnnyCode/AlgebraCohomologyTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="227">
   <si>
     <t xml:space="preserve">Algebras</t>
   </si>
@@ -331,7 +331,10 @@
     <t xml:space="preserve">p^2 + 1 = 0</t>
   </si>
   <si>
-    <t xml:space="preserve">f ≠ 0</t>
+    <t xml:space="preserve">P^2 + 1 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F ≠ 0, p^2+1 = 0</t>
   </si>
   <si>
     <t xml:space="preserve">q^2 + 1 = 0</t>
@@ -358,138 +361,144 @@
     <t xml:space="preserve">x*w - w*x</t>
   </si>
   <si>
+    <t xml:space="preserve">x*w – q*w*x,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*y + y*z - z*y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*y - p*y*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*y + y*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w*y - y*w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*w - x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*w + w*y - (p^2)*x*y + p*x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*w + p*w*y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*w - w*z - x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*w + w*y + p*x*y - w*z + x*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*w - p*w*y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*w + q*w*y + q*x*y - w*z + q*x*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*w - x*y - x*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x*y + w*z - y*x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*x - w*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*x + p*w*y - x*y - w*z + p*x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*x + (p^2)*x*y - w*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*x - w*z + x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*x + p*w*y - x*y - w*z - x*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*x - p*w*y - (p^2)*x*y - w*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*x - w*y - x*y - w*z + q*x*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y*x + w*y - w*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*w - w*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*w + x*y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*w + p*w*y + 2*(p^2)*x*y - p*w*z + p*x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*w - p*w*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*w + w*y - x*y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*w + p*w*y - p*x*y - p*w*z - x*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*w - w*y - q*x*y - q*w*z + q*x*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*w - x*y + x*z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x + 2*x*y + w*z - x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x - w*y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x + p*w*y - (p^2)*x*y - w*z + x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x - w*y – x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x - w*y - x*y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x + p*w*y + p*x*y - w*z + p*x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x - f*w*y + w*z - x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x + w*y + q*x*y - w*z + x*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z*x - w*y - w*z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> q = 1 or -1, f ≠ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f ≠ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f^2 ≠ g^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f ≠ 1, special case for f = 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">xw - q*wx</t>
   </si>
   <si>
-    <t xml:space="preserve">y*y + y*z - z*y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*y - p*y*z,</t>
+    <t xml:space="preserve">xw + wx</t>
   </si>
   <si>
     <t xml:space="preserve">zy + yz</t>
   </si>
   <si>
-    <t xml:space="preserve">w*y - y*w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*w - x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*w + w*y - (p^2)*x*y + p*x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*w + p*w*y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*w - w*z - x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*w + w*y + p*x*y - w*z + x*z,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*w - p*w*y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yw + q*wy + q*xy - wz + q*xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yw - xy - xz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x*y + w*z - y*x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*x - w*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*x + p*w*y - x*y - w*z + p*x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*x + (p^2)*x*y - w*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*x - w*z + x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*x + p*w*y - x*y - w*z - x*z,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y*x - p*w*y - (p^2)*x*y - w*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yx - wy - xy - wz + q*xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yx + wy - wz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*w - w*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*w + x*y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*w + p*w*y + 2*(p^2)*x*y - p*w*z + p*x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*w - p*w*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*w + w*y - x*y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*w + p*w*y - p*x*y - p*w*z - x*z,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zw - wy - q*xy - q*wz + q*xz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zw - xy + xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*x + 2*x*y + w*z - x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*x - w*y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*x + p*w*y - (p^2)*x*y - w*z + x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*x - w*y – x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*x - w*y - x*y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*x + p*w*y + p*x*y - w*z + p*x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z*x - f*w*y + w*z - x*z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zx + wy + q*xy - wz + xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zx - wy - wz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> q = 1 or -1, f ≠ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f ≠ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f^2 ≠ g^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f ≠ 1, special case for f = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xw + wx</t>
-  </si>
-  <si>
     <t xml:space="preserve">yw - wy</t>
   </si>
   <si>
@@ -637,6 +646,9 @@
     <t xml:space="preserve">    [ 2, 2, -1, 0 ],</t>
   </si>
   <si>
+    <t xml:space="preserve">[ 2, 2, -1, 0 ],</t>
+  </si>
+  <si>
     <t xml:space="preserve">    [ 1, 3, -1, 0 ],</t>
   </si>
   <si>
@@ -649,15 +661,24 @@
     <t xml:space="preserve">    [ 1, 2, -1, 0 ],</t>
   </si>
   <si>
+    <t xml:space="preserve">[ 2, 1, -1, 0 ],</t>
+  </si>
+  <si>
     <t xml:space="preserve">    [ 1, 1, -1, 0 ]</t>
   </si>
   <si>
     <t xml:space="preserve">]   </t>
   </si>
   <si>
+    <t xml:space="preserve">[ 1, 1, -1, 0 ],</t>
+  </si>
+  <si>
     <t xml:space="preserve">Further questions: Where does these components meet?</t>
   </si>
   <si>
+    <t xml:space="preserve">[ 1, 1, -1, 0 ]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genus? Ball or Torus?</t>
   </si>
   <si>
@@ -670,6 +691,9 @@
     <t xml:space="preserve">**For f =/= 0, use small prime numbers</t>
   </si>
   <si>
+    <t xml:space="preserve">    p := s^2;</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 smooth conics in the top and 4 lines in the bottom</t>
   </si>
   <si>
@@ -677,6 +701,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1, 2, -1, 0 ],</t>
   </si>
   <si>
     <t xml:space="preserve">`</t>
@@ -1330,11 +1357,11 @@
   </sheetPr>
   <dimension ref="A8:Y67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N75" activeCellId="0" sqref="N75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
   </cols>
@@ -3813,11 +3840,11 @@
   </sheetPr>
   <dimension ref="B5:Y67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
   </cols>
@@ -6185,11 +6212,11 @@
   </sheetPr>
   <dimension ref="B8:X67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O68" activeCellId="0" sqref="O68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
   </cols>
@@ -8160,11 +8187,11 @@
   </sheetPr>
   <dimension ref="C8:T64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T41" activeCellId="0" sqref="T41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
   </cols>
@@ -9601,11 +9628,11 @@
   </sheetPr>
   <dimension ref="C8:T65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J65" activeCellId="0" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
   </cols>
@@ -11536,13 +11563,14 @@
   </sheetPr>
   <dimension ref="B5:W62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K6" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.53"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11707,27 +11735,27 @@
       </c>
       <c r="M9" s="79"/>
       <c r="N9" s="79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="79"/>
       <c r="P9" s="79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="79"/>
       <c r="R9" s="79"/>
       <c r="S9" s="79"/>
       <c r="T9" s="79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U9" s="79"/>
       <c r="V9" s="79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W9" s="79"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="19"/>
@@ -11755,41 +11783,41 @@
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
       <c r="D11" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U11" s="19"/>
       <c r="V11" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W11" s="19"/>
     </row>
@@ -11821,41 +11849,41 @@
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
       <c r="D13" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
       <c r="T13" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U13" s="19"/>
       <c r="V13" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W13" s="19"/>
     </row>
@@ -11887,41 +11915,41 @@
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
       <c r="D15" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O15" s="19"/>
       <c r="P15" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W15" s="19"/>
     </row>
@@ -11953,41 +11981,41 @@
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
       <c r="D17" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O17" s="19"/>
       <c r="P17" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
       <c r="T17" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W17" s="19"/>
     </row>
@@ -12019,41 +12047,41 @@
       <c r="B19" s="84"/>
       <c r="C19" s="84"/>
       <c r="D19" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U19" s="19"/>
       <c r="V19" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W19" s="19"/>
     </row>
@@ -12085,41 +12113,41 @@
       <c r="B21" s="84"/>
       <c r="C21" s="84"/>
       <c r="D21" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O21" s="19"/>
       <c r="P21" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U21" s="19"/>
       <c r="V21" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W21" s="19"/>
     </row>
@@ -12291,27 +12319,27 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="79" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" s="79"/>
       <c r="F29" s="79" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G29" s="79"/>
       <c r="H29" s="79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" s="79"/>
       <c r="J29" s="79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K29" s="79"/>
       <c r="L29" s="79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M29" s="79"/>
       <c r="N29" s="79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O29" s="79"/>
       <c r="P29" s="79"/>
@@ -12325,7 +12353,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" s="84"/>
       <c r="D30" s="19"/>
@@ -12353,41 +12381,41 @@
       <c r="B31" s="84"/>
       <c r="C31" s="84"/>
       <c r="D31" s="19" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O31" s="19"/>
       <c r="P31" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="W31" s="19"/>
     </row>
@@ -12419,41 +12447,41 @@
       <c r="B33" s="84"/>
       <c r="C33" s="84"/>
       <c r="D33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="O33" s="19"/>
       <c r="P33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="W33" s="19"/>
     </row>
@@ -12485,41 +12513,41 @@
       <c r="B35" s="84"/>
       <c r="C35" s="84"/>
       <c r="D35" s="19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="S35" s="19"/>
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="W35" s="19"/>
     </row>
@@ -12551,41 +12579,41 @@
       <c r="B37" s="84"/>
       <c r="C37" s="84"/>
       <c r="D37" s="19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G37" s="19"/>
       <c r="H37" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O37" s="19"/>
       <c r="P37" s="19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q37" s="19"/>
       <c r="R37" s="19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
       <c r="V37" s="19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="W37" s="19"/>
     </row>
@@ -12617,41 +12645,41 @@
       <c r="B39" s="84"/>
       <c r="C39" s="84"/>
       <c r="D39" s="19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G39" s="19"/>
       <c r="H39" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M39" s="19"/>
       <c r="N39" s="19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q39" s="19"/>
       <c r="R39" s="19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
       <c r="V39" s="19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="W39" s="19"/>
     </row>
@@ -12683,41 +12711,41 @@
       <c r="B41" s="84"/>
       <c r="C41" s="84"/>
       <c r="D41" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G41" s="19"/>
       <c r="H41" s="19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M41" s="19"/>
       <c r="N41" s="19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O41" s="19"/>
       <c r="P41" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q41" s="19"/>
       <c r="R41" s="19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="W41" s="19"/>
     </row>
@@ -12875,7 +12903,7 @@
       <c r="L49" s="79"/>
       <c r="M49" s="79"/>
       <c r="N49" s="79" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O49" s="79"/>
       <c r="P49" s="85"/>
@@ -12889,7 +12917,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="84"/>
       <c r="D50" s="19"/>
@@ -12927,7 +12955,7 @@
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="19"/>
       <c r="P51" s="85"/>
@@ -12977,7 +13005,7 @@
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
       <c r="N53" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O53" s="19"/>
       <c r="P53" s="85"/>
@@ -13027,7 +13055,7 @@
       <c r="L55" s="19"/>
       <c r="M55" s="19"/>
       <c r="N55" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O55" s="19"/>
       <c r="P55" s="85"/>
@@ -13077,7 +13105,7 @@
       <c r="L57" s="19"/>
       <c r="M57" s="19"/>
       <c r="N57" s="19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O57" s="19"/>
       <c r="P57" s="85"/>
@@ -13127,7 +13155,7 @@
       <c r="L59" s="19"/>
       <c r="M59" s="19"/>
       <c r="N59" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O59" s="19"/>
       <c r="P59" s="85"/>
@@ -13177,7 +13205,7 @@
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
       <c r="N61" s="19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O61" s="19"/>
       <c r="P61" s="85"/>
@@ -13651,13 +13679,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.91"/>
@@ -13676,399 +13704,503 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H2" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D3" s="87"/>
       <c r="E3" s="89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F3" s="89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="F4" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="89" t="s">
-        <v>199</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>200</v>
-      </c>
       <c r="C5" s="89" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D5" s="89"/>
       <c r="E5" s="89" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G5" s="89" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C6" s="89" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D6" s="89"/>
       <c r="E6" s="89" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>200</v>
+        <v>210</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D7" s="89"/>
       <c r="E7" s="89" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F7" s="89" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>200</v>
+        <v>210</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D8" s="89"/>
       <c r="E8" s="89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="89" t="s">
         <v>209</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>205</v>
       </c>
       <c r="D9" s="89"/>
       <c r="E9" s="89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F9" s="89" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="J9" s="89" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="C10" s="89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D10" s="89"/>
       <c r="E10" s="89" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="J10" s="89" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D11" s="89"/>
       <c r="F11" s="89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G11" s="89" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D12" s="88"/>
       <c r="F12" s="89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G12" s="89"/>
       <c r="I12" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D13" s="89"/>
       <c r="F13" s="89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G13" s="89"/>
       <c r="I13" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="J13" s="89"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D14" s="89"/>
       <c r="F14" s="89" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G14" s="89"/>
       <c r="I14" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="89"/>
       <c r="F15" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C16" s="89"/>
-      <c r="J16" s="0" t="s">
-        <v>211</v>
-      </c>
+      <c r="F16" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="89"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C17" s="89"/>
+      <c r="F17" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C18" s="89"/>
       <c r="E18" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="89" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="89"/>
+      <c r="F19" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="89"/>
+      <c r="F20" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="89" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="89"/>
+      <c r="F21" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="89" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C22" s="89"/>
+      <c r="F22" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="89" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="89"/>
+      <c r="F23" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="89" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="89"/>
+      <c r="F24" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="89" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="89"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F25" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="I27" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="I33" s="89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
